--- a/pred_ohlcv/54/2019-10-22 LOOM ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-22 LOOM ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H145"/>
+  <dimension ref="A1:I125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -408,7 +413,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="C2" t="n">
         <v>27.8</v>
@@ -417,15 +422,18 @@
         <v>27.8</v>
       </c>
       <c r="E2" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="F2" t="n">
-        <v>22484.7841</v>
+        <v>3603.2338</v>
       </c>
       <c r="G2" t="n">
-        <v>27.51833333333333</v>
+        <v>27.52166666666666</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -434,24 +442,27 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>27.4</v>
+        <v>27.8</v>
       </c>
       <c r="C3" t="n">
-        <v>27.4</v>
+        <v>27.8</v>
       </c>
       <c r="D3" t="n">
-        <v>27.4</v>
+        <v>27.8</v>
       </c>
       <c r="E3" t="n">
-        <v>27.4</v>
+        <v>27.8</v>
       </c>
       <c r="F3" t="n">
-        <v>10</v>
+        <v>22484.7841</v>
       </c>
       <c r="G3" t="n">
-        <v>27.505</v>
+        <v>27.51833333333333</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -472,12 +483,15 @@
         <v>27.4</v>
       </c>
       <c r="F4" t="n">
-        <v>20213.6522</v>
+        <v>10</v>
       </c>
       <c r="G4" t="n">
-        <v>27.49166666666667</v>
+        <v>27.505</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -486,24 +500,27 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="C5" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="D5" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="E5" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="F5" t="n">
-        <v>132</v>
+        <v>20213.6522</v>
       </c>
       <c r="G5" t="n">
-        <v>27.48166666666667</v>
+        <v>27.49166666666667</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -515,21 +532,24 @@
         <v>27.5</v>
       </c>
       <c r="C6" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="D6" t="n">
         <v>27.5</v>
       </c>
       <c r="E6" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="F6" t="n">
-        <v>19897.2566</v>
+        <v>132</v>
       </c>
       <c r="G6" t="n">
-        <v>27.46833333333334</v>
+        <v>27.48166666666667</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -538,24 +558,27 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="C7" t="n">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="D7" t="n">
-        <v>27.8</v>
+        <v>27.5</v>
       </c>
       <c r="E7" t="n">
-        <v>27.7</v>
+        <v>27.4</v>
       </c>
       <c r="F7" t="n">
-        <v>162525.2828</v>
+        <v>19897.2566</v>
       </c>
       <c r="G7" t="n">
-        <v>27.465</v>
+        <v>27.46833333333334</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -564,24 +587,27 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>28</v>
+        <v>27.7</v>
       </c>
       <c r="C8" t="n">
-        <v>28.1</v>
+        <v>27.8</v>
       </c>
       <c r="D8" t="n">
-        <v>28.1</v>
+        <v>27.8</v>
       </c>
       <c r="E8" t="n">
-        <v>28</v>
+        <v>27.7</v>
       </c>
       <c r="F8" t="n">
-        <v>121618.2011</v>
+        <v>162525.2828</v>
       </c>
       <c r="G8" t="n">
-        <v>27.46666666666667</v>
+        <v>27.465</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -590,24 +616,27 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
+        <v>28</v>
+      </c>
+      <c r="C9" t="n">
         <v>28.1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>28</v>
       </c>
       <c r="D9" t="n">
         <v>28.1</v>
       </c>
       <c r="E9" t="n">
-        <v>27.5</v>
+        <v>28</v>
       </c>
       <c r="F9" t="n">
-        <v>49973.8583</v>
+        <v>121618.2011</v>
       </c>
       <c r="G9" t="n">
-        <v>27.47</v>
+        <v>27.46666666666667</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -616,25 +645,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="C10" t="n">
         <v>28</v>
-      </c>
-      <c r="C10" t="n">
-        <v>28.1</v>
       </c>
       <c r="D10" t="n">
         <v>28.1</v>
       </c>
       <c r="E10" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="F10" t="n">
-        <v>55721.1965</v>
+        <v>49973.8583</v>
       </c>
       <c r="G10" t="n">
-        <v>27.47166666666667</v>
+        <v>27.47</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -642,25 +674,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>27.8</v>
+        <v>28</v>
       </c>
       <c r="C11" t="n">
-        <v>27.8</v>
+        <v>28.1</v>
       </c>
       <c r="D11" t="n">
-        <v>27.8</v>
+        <v>28.1</v>
       </c>
       <c r="E11" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="F11" t="n">
-        <v>310.187</v>
+        <v>55721.1965</v>
       </c>
       <c r="G11" t="n">
-        <v>27.47</v>
+        <v>27.47166666666667</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -680,12 +715,15 @@
         <v>27.8</v>
       </c>
       <c r="F12" t="n">
-        <v>3882.4029</v>
+        <v>310.187</v>
       </c>
       <c r="G12" t="n">
         <v>27.47</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -694,24 +732,27 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>28</v>
+        <v>27.8</v>
       </c>
       <c r="C13" t="n">
-        <v>28</v>
+        <v>27.8</v>
       </c>
       <c r="D13" t="n">
-        <v>28</v>
+        <v>27.8</v>
       </c>
       <c r="E13" t="n">
-        <v>28</v>
+        <v>27.8</v>
       </c>
       <c r="F13" t="n">
-        <v>10</v>
+        <v>3882.4029</v>
       </c>
       <c r="G13" t="n">
-        <v>27.47333333333333</v>
+        <v>27.47</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -720,24 +761,27 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>27.8</v>
+        <v>28</v>
       </c>
       <c r="C14" t="n">
-        <v>27.6</v>
+        <v>28</v>
       </c>
       <c r="D14" t="n">
-        <v>27.8</v>
+        <v>28</v>
       </c>
       <c r="E14" t="n">
-        <v>27.6</v>
+        <v>28</v>
       </c>
       <c r="F14" t="n">
-        <v>7341.6326</v>
+        <v>10</v>
       </c>
       <c r="G14" t="n">
-        <v>27.47</v>
+        <v>27.47333333333333</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -749,21 +793,24 @@
         <v>27.8</v>
       </c>
       <c r="C15" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="D15" t="n">
         <v>27.8</v>
       </c>
       <c r="E15" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="F15" t="n">
-        <v>16252.8676</v>
+        <v>7341.6326</v>
       </c>
       <c r="G15" t="n">
-        <v>27.46833333333333</v>
+        <v>27.47</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -772,24 +819,27 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>28</v>
+        <v>27.8</v>
       </c>
       <c r="C16" t="n">
         <v>27.7</v>
       </c>
       <c r="D16" t="n">
-        <v>28</v>
+        <v>27.8</v>
       </c>
       <c r="E16" t="n">
         <v>27.7</v>
       </c>
       <c r="F16" t="n">
-        <v>7391.4207</v>
+        <v>16252.8676</v>
       </c>
       <c r="G16" t="n">
-        <v>27.46666666666667</v>
+        <v>27.46833333333333</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -810,12 +860,15 @@
         <v>27.7</v>
       </c>
       <c r="F17" t="n">
-        <v>29888.0571</v>
+        <v>7391.4207</v>
       </c>
       <c r="G17" t="n">
-        <v>27.465</v>
+        <v>27.46666666666667</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -824,24 +877,27 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>27.8</v>
+        <v>28</v>
       </c>
       <c r="C18" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="D18" t="n">
-        <v>27.8</v>
+        <v>28</v>
       </c>
       <c r="E18" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="F18" t="n">
-        <v>727.5217</v>
+        <v>29888.0571</v>
       </c>
       <c r="G18" t="n">
-        <v>27.46833333333334</v>
+        <v>27.465</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -850,24 +906,27 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="C19" t="n">
-        <v>28</v>
+        <v>27.8</v>
       </c>
       <c r="D19" t="n">
-        <v>28</v>
+        <v>27.8</v>
       </c>
       <c r="E19" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="F19" t="n">
-        <v>2010</v>
+        <v>727.5217</v>
       </c>
       <c r="G19" t="n">
-        <v>27.475</v>
+        <v>27.46833333333334</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -876,24 +935,27 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="C20" t="n">
         <v>28</v>
-      </c>
-      <c r="C20" t="n">
-        <v>27.7</v>
       </c>
       <c r="D20" t="n">
         <v>28</v>
       </c>
       <c r="E20" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="F20" t="n">
-        <v>26630.3571</v>
+        <v>2010</v>
       </c>
       <c r="G20" t="n">
         <v>27.475</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -902,24 +964,27 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>27.6</v>
+        <v>28</v>
       </c>
       <c r="C21" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="D21" t="n">
-        <v>27.6</v>
+        <v>28</v>
       </c>
       <c r="E21" t="n">
         <v>27.6</v>
       </c>
       <c r="F21" t="n">
-        <v>463.1661</v>
+        <v>26630.3571</v>
       </c>
       <c r="G21" t="n">
-        <v>27.47166666666667</v>
+        <v>27.475</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -928,24 +993,27 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="C22" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="D22" t="n">
-        <v>28</v>
+        <v>27.6</v>
       </c>
       <c r="E22" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="F22" t="n">
-        <v>25314.7857</v>
+        <v>463.1661</v>
       </c>
       <c r="G22" t="n">
-        <v>27.46500000000001</v>
+        <v>27.47166666666667</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -954,24 +1022,27 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="C23" t="n">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="D23" t="n">
-        <v>27.8</v>
+        <v>28</v>
       </c>
       <c r="E23" t="n">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="F23" t="n">
-        <v>946.6679</v>
+        <v>25314.7857</v>
       </c>
       <c r="G23" t="n">
-        <v>27.47166666666667</v>
+        <v>27.46500000000001</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -980,7 +1051,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="C24" t="n">
         <v>27.8</v>
@@ -989,15 +1060,18 @@
         <v>27.8</v>
       </c>
       <c r="E24" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="F24" t="n">
-        <v>2306.8307</v>
+        <v>946.6679</v>
       </c>
       <c r="G24" t="n">
-        <v>27.48333333333334</v>
+        <v>27.47166666666667</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1009,21 +1083,24 @@
         <v>27.7</v>
       </c>
       <c r="C25" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="D25" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="E25" t="n">
         <v>27.7</v>
       </c>
       <c r="F25" t="n">
-        <v>22929.802</v>
+        <v>2306.8307</v>
       </c>
       <c r="G25" t="n">
-        <v>27.495</v>
+        <v>27.48333333333334</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1032,24 +1109,27 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>28</v>
+        <v>27.7</v>
       </c>
       <c r="C26" t="n">
         <v>27.7</v>
       </c>
       <c r="D26" t="n">
-        <v>28</v>
+        <v>27.7</v>
       </c>
       <c r="E26" t="n">
         <v>27.7</v>
       </c>
       <c r="F26" t="n">
-        <v>17054.1588</v>
+        <v>22929.802</v>
       </c>
       <c r="G26" t="n">
-        <v>27.50500000000001</v>
+        <v>27.495</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1058,24 +1138,27 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>27.9</v>
+        <v>28</v>
       </c>
       <c r="C27" t="n">
-        <v>27.9</v>
+        <v>27.7</v>
       </c>
       <c r="D27" t="n">
-        <v>27.9</v>
+        <v>28</v>
       </c>
       <c r="E27" t="n">
-        <v>27.9</v>
+        <v>27.7</v>
       </c>
       <c r="F27" t="n">
-        <v>11</v>
+        <v>17054.1588</v>
       </c>
       <c r="G27" t="n">
-        <v>27.51666666666667</v>
+        <v>27.50500000000001</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1084,7 +1167,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>27.7</v>
+        <v>27.9</v>
       </c>
       <c r="C28" t="n">
         <v>27.9</v>
@@ -1093,15 +1176,18 @@
         <v>27.9</v>
       </c>
       <c r="E28" t="n">
-        <v>27.5</v>
+        <v>27.9</v>
       </c>
       <c r="F28" t="n">
-        <v>7517.0343</v>
+        <v>11</v>
       </c>
       <c r="G28" t="n">
-        <v>27.52833333333334</v>
+        <v>27.51666666666667</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1110,24 +1196,27 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="C29" t="n">
-        <v>27.5</v>
+        <v>27.9</v>
       </c>
       <c r="D29" t="n">
-        <v>27.5</v>
+        <v>27.9</v>
       </c>
       <c r="E29" t="n">
         <v>27.5</v>
       </c>
       <c r="F29" t="n">
-        <v>36491.2479</v>
+        <v>7517.0343</v>
       </c>
       <c r="G29" t="n">
-        <v>27.53166666666668</v>
+        <v>27.52833333333334</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1136,24 +1225,27 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="C30" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="D30" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="E30" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="F30" t="n">
-        <v>1001.3174</v>
+        <v>36491.2479</v>
       </c>
       <c r="G30" t="n">
-        <v>27.53333333333334</v>
+        <v>27.53166666666668</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1162,24 +1254,27 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="C31" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="D31" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="E31" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="F31" t="n">
-        <v>9400</v>
+        <v>1001.3174</v>
       </c>
       <c r="G31" t="n">
-        <v>27.53166666666668</v>
+        <v>27.53333333333334</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1188,24 +1283,27 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="C32" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="D32" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="E32" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="F32" t="n">
-        <v>10</v>
+        <v>9400</v>
       </c>
       <c r="G32" t="n">
-        <v>27.53333333333335</v>
+        <v>27.53166666666668</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1214,24 +1312,27 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>27.9</v>
+        <v>27.7</v>
       </c>
       <c r="C33" t="n">
-        <v>27.9</v>
+        <v>27.7</v>
       </c>
       <c r="D33" t="n">
-        <v>27.9</v>
+        <v>27.7</v>
       </c>
       <c r="E33" t="n">
-        <v>27.9</v>
+        <v>27.7</v>
       </c>
       <c r="F33" t="n">
-        <v>10000</v>
+        <v>10</v>
       </c>
       <c r="G33" t="n">
-        <v>27.53833333333335</v>
+        <v>27.53333333333335</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1252,12 +1353,15 @@
         <v>27.9</v>
       </c>
       <c r="F34" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="G34" t="n">
-        <v>27.54333333333335</v>
+        <v>27.53833333333335</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1266,24 +1370,27 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="C35" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="D35" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="E35" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="F35" t="n">
-        <v>10</v>
+        <v>20000</v>
       </c>
       <c r="G35" t="n">
-        <v>27.54666666666668</v>
+        <v>27.54333333333335</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1292,24 +1399,27 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="C36" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="D36" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="E36" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="F36" t="n">
-        <v>979.8411</v>
+        <v>10</v>
       </c>
       <c r="G36" t="n">
         <v>27.54666666666668</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1330,12 +1440,15 @@
         <v>27.7</v>
       </c>
       <c r="F37" t="n">
-        <v>684.7645</v>
+        <v>979.8411</v>
       </c>
       <c r="G37" t="n">
         <v>27.54666666666668</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1344,24 +1457,27 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>27.9</v>
+        <v>27.7</v>
       </c>
       <c r="C38" t="n">
-        <v>27.9</v>
+        <v>27.7</v>
       </c>
       <c r="D38" t="n">
-        <v>27.9</v>
+        <v>27.7</v>
       </c>
       <c r="E38" t="n">
-        <v>27.9</v>
+        <v>27.7</v>
       </c>
       <c r="F38" t="n">
-        <v>14755.1254</v>
+        <v>684.7645</v>
       </c>
       <c r="G38" t="n">
         <v>27.54666666666668</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1370,24 +1486,27 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="C39" t="n">
-        <v>27.7</v>
+        <v>27.9</v>
       </c>
       <c r="D39" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="E39" t="n">
-        <v>27.7</v>
+        <v>27.9</v>
       </c>
       <c r="F39" t="n">
-        <v>39077.8479</v>
+        <v>14755.1254</v>
       </c>
       <c r="G39" t="n">
-        <v>27.55000000000002</v>
+        <v>27.54666666666668</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1396,24 +1515,27 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="C40" t="n">
         <v>27.7</v>
       </c>
       <c r="D40" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="E40" t="n">
         <v>27.7</v>
       </c>
       <c r="F40" t="n">
-        <v>4425.9079</v>
+        <v>39077.8479</v>
       </c>
       <c r="G40" t="n">
-        <v>27.55500000000002</v>
+        <v>27.55000000000002</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1422,24 +1544,27 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="C41" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="D41" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="E41" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="F41" t="n">
-        <v>1802.8835</v>
+        <v>4425.9079</v>
       </c>
       <c r="G41" t="n">
-        <v>27.55666666666668</v>
+        <v>27.55500000000002</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1448,24 +1573,27 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="C42" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="D42" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="E42" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="F42" t="n">
-        <v>11629.7375</v>
+        <v>1802.8835</v>
       </c>
       <c r="G42" t="n">
-        <v>27.55833333333335</v>
+        <v>27.55666666666668</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1486,12 +1614,15 @@
         <v>27.5</v>
       </c>
       <c r="F43" t="n">
-        <v>9361.179400000001</v>
+        <v>11629.7375</v>
       </c>
       <c r="G43" t="n">
-        <v>27.56000000000001</v>
+        <v>27.55833333333335</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1500,24 +1631,27 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="C44" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="D44" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="E44" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="F44" t="n">
-        <v>100</v>
+        <v>9361.179400000001</v>
       </c>
       <c r="G44" t="n">
-        <v>27.56833333333335</v>
+        <v>27.56000000000001</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1535,15 +1669,18 @@
         <v>27.7</v>
       </c>
       <c r="E45" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="F45" t="n">
-        <v>35435.8488</v>
+        <v>100</v>
       </c>
       <c r="G45" t="n">
-        <v>27.57666666666668</v>
+        <v>27.56833333333335</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1552,24 +1689,27 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="C46" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="D46" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="E46" t="n">
         <v>27.6</v>
       </c>
       <c r="F46" t="n">
-        <v>1187.9962</v>
+        <v>35435.8488</v>
       </c>
       <c r="G46" t="n">
-        <v>27.58333333333335</v>
+        <v>27.57666666666668</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1578,24 +1718,27 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="C47" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="D47" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="E47" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="F47" t="n">
-        <v>2097.3199</v>
+        <v>1187.9962</v>
       </c>
       <c r="G47" t="n">
-        <v>27.59666666666668</v>
+        <v>27.58333333333335</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1607,21 +1750,24 @@
         <v>27.7</v>
       </c>
       <c r="C48" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="D48" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="E48" t="n">
         <v>27.7</v>
       </c>
       <c r="F48" t="n">
-        <v>1740.831</v>
+        <v>2097.3199</v>
       </c>
       <c r="G48" t="n">
-        <v>27.60666666666668</v>
+        <v>27.59666666666668</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1630,24 +1776,27 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="C49" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="D49" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="E49" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="F49" t="n">
-        <v>22484.7841</v>
+        <v>1740.831</v>
       </c>
       <c r="G49" t="n">
-        <v>27.61833333333334</v>
+        <v>27.60666666666668</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1668,12 +1817,15 @@
         <v>27.6</v>
       </c>
       <c r="F50" t="n">
-        <v>66.033</v>
+        <v>22484.7841</v>
       </c>
       <c r="G50" t="n">
-        <v>27.62500000000001</v>
+        <v>27.61833333333334</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1694,12 +1846,15 @@
         <v>27.6</v>
       </c>
       <c r="F51" t="n">
-        <v>1683.7484</v>
+        <v>66.033</v>
       </c>
       <c r="G51" t="n">
-        <v>27.63666666666667</v>
+        <v>27.62500000000001</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1708,24 +1863,27 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="C52" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="D52" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="E52" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="F52" t="n">
-        <v>9206.306</v>
+        <v>1683.7484</v>
       </c>
       <c r="G52" t="n">
-        <v>27.65</v>
+        <v>27.63666666666667</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1746,12 +1904,15 @@
         <v>27.5</v>
       </c>
       <c r="F53" t="n">
-        <v>12225.1675</v>
+        <v>9206.306</v>
       </c>
       <c r="G53" t="n">
-        <v>27.66166666666667</v>
+        <v>27.65</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1772,12 +1933,15 @@
         <v>27.5</v>
       </c>
       <c r="F54" t="n">
-        <v>14670.6901</v>
+        <v>12225.1675</v>
       </c>
       <c r="G54" t="n">
-        <v>27.67333333333334</v>
+        <v>27.66166666666667</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1789,21 +1953,24 @@
         <v>27.5</v>
       </c>
       <c r="C55" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="D55" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="E55" t="n">
         <v>27.5</v>
       </c>
       <c r="F55" t="n">
-        <v>6168.6429</v>
+        <v>14670.6901</v>
       </c>
       <c r="G55" t="n">
-        <v>27.68</v>
+        <v>27.67333333333334</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1812,7 +1979,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="C56" t="n">
         <v>27.6</v>
@@ -1821,15 +1988,18 @@
         <v>27.6</v>
       </c>
       <c r="E56" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="F56" t="n">
-        <v>30600</v>
+        <v>6168.6429</v>
       </c>
       <c r="G56" t="n">
-        <v>27.685</v>
+        <v>27.68</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1847,15 +2017,18 @@
         <v>27.6</v>
       </c>
       <c r="E57" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="F57" t="n">
-        <v>800</v>
+        <v>30600</v>
       </c>
       <c r="G57" t="n">
-        <v>27.68833333333333</v>
+        <v>27.685</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1864,24 +2037,27 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="C58" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="D58" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="E58" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="F58" t="n">
-        <v>71033.0223</v>
+        <v>800</v>
       </c>
       <c r="G58" t="n">
-        <v>27.69</v>
+        <v>27.68833333333333</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1899,15 +2075,18 @@
         <v>27.7</v>
       </c>
       <c r="E59" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="F59" t="n">
-        <v>13820.9662</v>
+        <v>71033.0223</v>
       </c>
       <c r="G59" t="n">
         <v>27.69</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1916,24 +2095,27 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="C60" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="D60" t="n">
         <v>27.7</v>
       </c>
       <c r="E60" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="F60" t="n">
-        <v>15049.7482</v>
+        <v>13820.9662</v>
       </c>
       <c r="G60" t="n">
         <v>27.69</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1951,15 +2133,18 @@
         <v>27.7</v>
       </c>
       <c r="E61" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="F61" t="n">
-        <v>821.5399</v>
+        <v>15049.7482</v>
       </c>
       <c r="G61" t="n">
-        <v>27.68833333333333</v>
+        <v>27.69</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1968,24 +2153,27 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="C62" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="D62" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="E62" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="F62" t="n">
-        <v>1627.3504</v>
+        <v>821.5399</v>
       </c>
       <c r="G62" t="n">
         <v>27.68833333333333</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1994,24 +2182,27 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="C63" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="D63" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="E63" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="F63" t="n">
-        <v>789.3821</v>
+        <v>1627.3504</v>
       </c>
       <c r="G63" t="n">
-        <v>27.69166666666666</v>
+        <v>27.68833333333333</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2023,21 +2214,24 @@
         <v>27.6</v>
       </c>
       <c r="C64" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="D64" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="E64" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="F64" t="n">
-        <v>1576.1714</v>
+        <v>789.3821</v>
       </c>
       <c r="G64" t="n">
-        <v>27.69833333333333</v>
+        <v>27.69166666666666</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2049,21 +2243,24 @@
         <v>27.6</v>
       </c>
       <c r="C65" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="D65" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="E65" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="F65" t="n">
-        <v>5016.0507</v>
+        <v>1576.1714</v>
       </c>
       <c r="G65" t="n">
-        <v>27.69999999999999</v>
+        <v>27.69833333333333</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2072,7 +2269,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="C66" t="n">
         <v>27.6</v>
@@ -2081,15 +2278,18 @@
         <v>27.6</v>
       </c>
       <c r="E66" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="F66" t="n">
-        <v>25424.2593</v>
+        <v>5016.0507</v>
       </c>
       <c r="G66" t="n">
-        <v>27.70333333333332</v>
+        <v>27.69999999999999</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2110,12 +2310,15 @@
         <v>27.5</v>
       </c>
       <c r="F67" t="n">
-        <v>3423.9749</v>
+        <v>25424.2593</v>
       </c>
       <c r="G67" t="n">
-        <v>27.69999999999999</v>
+        <v>27.70333333333332</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2127,21 +2330,24 @@
         <v>27.5</v>
       </c>
       <c r="C68" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="D68" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="E68" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="F68" t="n">
-        <v>118000.6959</v>
+        <v>3423.9749</v>
       </c>
       <c r="G68" t="n">
-        <v>27.68666666666666</v>
+        <v>27.69999999999999</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2150,24 +2356,27 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C69" t="n">
         <v>27.3</v>
       </c>
-      <c r="C69" t="n">
-        <v>27.6</v>
-      </c>
       <c r="D69" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="E69" t="n">
         <v>27.3</v>
       </c>
       <c r="F69" t="n">
-        <v>2564.1025</v>
+        <v>118000.6959</v>
       </c>
       <c r="G69" t="n">
-        <v>27.67999999999999</v>
+        <v>27.68666666666666</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2176,24 +2385,27 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="C70" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="D70" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="E70" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="F70" t="n">
-        <v>2554.7445</v>
+        <v>2564.1025</v>
       </c>
       <c r="G70" t="n">
-        <v>27.66833333333333</v>
+        <v>27.67999999999999</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2217,9 +2429,12 @@
         <v>2554.7445</v>
       </c>
       <c r="G71" t="n">
-        <v>27.66166666666666</v>
+        <v>27.66833333333333</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2240,12 +2455,15 @@
         <v>27.4</v>
       </c>
       <c r="F72" t="n">
-        <v>2383.7226</v>
+        <v>2554.7445</v>
       </c>
       <c r="G72" t="n">
-        <v>27.65499999999999</v>
+        <v>27.66166666666666</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2266,12 +2484,15 @@
         <v>27.4</v>
       </c>
       <c r="F73" t="n">
-        <v>6161.0466</v>
+        <v>2383.7226</v>
       </c>
       <c r="G73" t="n">
-        <v>27.645</v>
+        <v>27.65499999999999</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2292,12 +2513,15 @@
         <v>27.4</v>
       </c>
       <c r="F74" t="n">
-        <v>4744.9627</v>
+        <v>6161.0466</v>
       </c>
       <c r="G74" t="n">
-        <v>27.64166666666667</v>
+        <v>27.645</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2306,24 +2530,27 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="C75" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="D75" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="E75" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="F75" t="n">
-        <v>11</v>
+        <v>4744.9627</v>
       </c>
       <c r="G75" t="n">
-        <v>27.64</v>
+        <v>27.64166666666667</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2332,24 +2559,27 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="C76" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="D76" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="E76" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="F76" t="n">
-        <v>30469.8922</v>
+        <v>11</v>
       </c>
       <c r="G76" t="n">
-        <v>27.635</v>
+        <v>27.64</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2370,12 +2600,15 @@
         <v>27.4</v>
       </c>
       <c r="F77" t="n">
-        <v>778.2788</v>
+        <v>30469.8922</v>
       </c>
       <c r="G77" t="n">
-        <v>27.63</v>
+        <v>27.635</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2384,24 +2617,27 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="C78" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="D78" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="E78" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="F78" t="n">
-        <v>2564.1025</v>
+        <v>778.2788</v>
       </c>
       <c r="G78" t="n">
-        <v>27.62166666666667</v>
+        <v>27.63</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2422,12 +2658,15 @@
         <v>27.3</v>
       </c>
       <c r="F79" t="n">
-        <v>7692.3075</v>
+        <v>2564.1025</v>
       </c>
       <c r="G79" t="n">
-        <v>27.61</v>
+        <v>27.62166666666667</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2448,12 +2687,15 @@
         <v>27.3</v>
       </c>
       <c r="F80" t="n">
-        <v>13130.8195</v>
+        <v>7692.3075</v>
       </c>
       <c r="G80" t="n">
-        <v>27.60333333333333</v>
+        <v>27.61</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2462,24 +2704,27 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="C81" t="n">
-        <v>27.1</v>
+        <v>27.3</v>
       </c>
       <c r="D81" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="E81" t="n">
-        <v>27.1</v>
+        <v>27.3</v>
       </c>
       <c r="F81" t="n">
-        <v>63296.2529</v>
+        <v>13130.8195</v>
       </c>
       <c r="G81" t="n">
-        <v>27.595</v>
+        <v>27.60333333333333</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2491,21 +2736,24 @@
         <v>27.2</v>
       </c>
       <c r="C82" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="D82" t="n">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="E82" t="n">
         <v>27.1</v>
       </c>
       <c r="F82" t="n">
-        <v>18886.2885</v>
+        <v>63296.2529</v>
       </c>
       <c r="G82" t="n">
-        <v>27.59166666666666</v>
+        <v>27.595</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2523,15 +2771,18 @@
         <v>27.2</v>
       </c>
       <c r="E83" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="F83" t="n">
-        <v>7720.5882</v>
+        <v>18886.2885</v>
       </c>
       <c r="G83" t="n">
-        <v>27.58166666666666</v>
+        <v>27.59166666666666</v>
       </c>
       <c r="H83" t="n">
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2552,12 +2803,15 @@
         <v>27.2</v>
       </c>
       <c r="F84" t="n">
-        <v>122612.6149</v>
+        <v>7720.5882</v>
       </c>
       <c r="G84" t="n">
-        <v>27.57166666666667</v>
+        <v>27.58166666666666</v>
       </c>
       <c r="H84" t="n">
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2566,24 +2820,27 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="C85" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="D85" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="E85" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="F85" t="n">
-        <v>1720</v>
+        <v>122612.6149</v>
       </c>
       <c r="G85" t="n">
-        <v>27.565</v>
+        <v>27.57166666666667</v>
       </c>
       <c r="H85" t="n">
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2604,12 +2861,15 @@
         <v>27.3</v>
       </c>
       <c r="F86" t="n">
-        <v>66</v>
+        <v>1720</v>
       </c>
       <c r="G86" t="n">
-        <v>27.55833333333333</v>
+        <v>27.565</v>
       </c>
       <c r="H86" t="n">
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2630,12 +2890,15 @@
         <v>27.3</v>
       </c>
       <c r="F87" t="n">
-        <v>171.1812</v>
+        <v>66</v>
       </c>
       <c r="G87" t="n">
-        <v>27.54833333333333</v>
+        <v>27.55833333333333</v>
       </c>
       <c r="H87" t="n">
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2644,24 +2907,27 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="C88" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="D88" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="E88" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="F88" t="n">
-        <v>11</v>
+        <v>171.1812</v>
       </c>
       <c r="G88" t="n">
-        <v>27.54333333333333</v>
+        <v>27.54833333333333</v>
       </c>
       <c r="H88" t="n">
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2682,12 +2948,15 @@
         <v>27.6</v>
       </c>
       <c r="F89" t="n">
-        <v>1326.6757</v>
+        <v>11</v>
       </c>
       <c r="G89" t="n">
-        <v>27.54499999999999</v>
+        <v>27.54333333333333</v>
       </c>
       <c r="H89" t="n">
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2696,24 +2965,27 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="C90" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="D90" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="E90" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="F90" t="n">
-        <v>27131.8005</v>
+        <v>1326.6757</v>
       </c>
       <c r="G90" t="n">
-        <v>27.54333333333333</v>
+        <v>27.54499999999999</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2722,24 +2994,27 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="C91" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="D91" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="E91" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="F91" t="n">
-        <v>33100</v>
+        <v>27131.8005</v>
       </c>
       <c r="G91" t="n">
-        <v>27.54666666666666</v>
+        <v>27.54333333333333</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2751,21 +3026,24 @@
         <v>27.6</v>
       </c>
       <c r="C92" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="D92" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="E92" t="n">
         <v>27.6</v>
       </c>
       <c r="F92" t="n">
-        <v>2153.5378</v>
+        <v>33100</v>
       </c>
       <c r="G92" t="n">
-        <v>27.54499999999999</v>
+        <v>27.54666666666666</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2774,24 +3052,27 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="C93" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="D93" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="E93" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="F93" t="n">
-        <v>12200</v>
+        <v>2153.5378</v>
       </c>
       <c r="G93" t="n">
-        <v>27.54333333333332</v>
+        <v>27.54499999999999</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2800,7 +3081,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="C94" t="n">
         <v>27.8</v>
@@ -2809,16 +3090,19 @@
         <v>27.8</v>
       </c>
       <c r="E94" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="F94" t="n">
-        <v>15700</v>
+        <v>12200</v>
       </c>
       <c r="G94" t="n">
-        <v>27.54166666666665</v>
+        <v>27.54333333333332</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -2838,13 +3122,16 @@
         <v>27.8</v>
       </c>
       <c r="F95" t="n">
-        <v>5494.0511</v>
+        <v>15700</v>
       </c>
       <c r="G95" t="n">
         <v>27.54166666666665</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -2864,13 +3151,16 @@
         <v>27.8</v>
       </c>
       <c r="F96" t="n">
-        <v>4206.4563</v>
+        <v>5494.0511</v>
       </c>
       <c r="G96" t="n">
-        <v>27.54333333333332</v>
+        <v>27.54166666666665</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -2878,25 +3168,28 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="C97" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="D97" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="E97" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="F97" t="n">
-        <v>64000</v>
+        <v>4206.4563</v>
       </c>
       <c r="G97" t="n">
-        <v>27.54166666666665</v>
+        <v>27.54333333333332</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -2916,13 +3209,16 @@
         <v>27.6</v>
       </c>
       <c r="F98" t="n">
-        <v>600</v>
+        <v>64000</v>
       </c>
       <c r="G98" t="n">
-        <v>27.53666666666664</v>
+        <v>27.54166666666665</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -2930,24 +3226,27 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="C99" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="D99" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="E99" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="F99" t="n">
-        <v>10</v>
+        <v>600</v>
       </c>
       <c r="G99" t="n">
         <v>27.53666666666664</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2959,21 +3258,24 @@
         <v>27.7</v>
       </c>
       <c r="C100" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="D100" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="E100" t="n">
         <v>27.7</v>
       </c>
       <c r="F100" t="n">
-        <v>14440.5425</v>
+        <v>10</v>
       </c>
       <c r="G100" t="n">
-        <v>27.53833333333331</v>
+        <v>27.53666666666664</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2982,7 +3284,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="C101" t="n">
         <v>27.8</v>
@@ -2991,15 +3293,18 @@
         <v>27.8</v>
       </c>
       <c r="E101" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="F101" t="n">
-        <v>590</v>
+        <v>14440.5425</v>
       </c>
       <c r="G101" t="n">
-        <v>27.54166666666664</v>
+        <v>27.53833333333331</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3008,24 +3313,27 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="C102" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="D102" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="E102" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="F102" t="n">
-        <v>5309.8926</v>
+        <v>590</v>
       </c>
       <c r="G102" t="n">
-        <v>27.54833333333331</v>
+        <v>27.54166666666664</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3046,12 +3354,15 @@
         <v>27.9</v>
       </c>
       <c r="F103" t="n">
-        <v>1357.8964</v>
+        <v>5309.8926</v>
       </c>
       <c r="G103" t="n">
-        <v>27.55499999999998</v>
+        <v>27.54833333333331</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3060,24 +3371,27 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="C104" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="D104" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="E104" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="F104" t="n">
-        <v>5410.016</v>
+        <v>1357.8964</v>
       </c>
       <c r="G104" t="n">
-        <v>27.55666666666665</v>
+        <v>27.55499999999998</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3086,24 +3400,27 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="C105" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="D105" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="E105" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="F105" t="n">
-        <v>2508</v>
+        <v>5410.016</v>
       </c>
       <c r="G105" t="n">
-        <v>27.55999999999998</v>
+        <v>27.55666666666665</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3112,24 +3429,27 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="C106" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="D106" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="E106" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="F106" t="n">
-        <v>1857.1259</v>
+        <v>2508</v>
       </c>
       <c r="G106" t="n">
-        <v>27.56333333333331</v>
+        <v>27.55999999999998</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3150,12 +3470,15 @@
         <v>27.8</v>
       </c>
       <c r="F107" t="n">
-        <v>881.6236</v>
+        <v>1857.1259</v>
       </c>
       <c r="G107" t="n">
         <v>27.56333333333331</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3176,12 +3499,15 @@
         <v>27.8</v>
       </c>
       <c r="F108" t="n">
-        <v>1336.3907</v>
+        <v>881.6236</v>
       </c>
       <c r="G108" t="n">
-        <v>27.56499999999998</v>
+        <v>27.56333333333331</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3190,24 +3516,27 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="C109" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="D109" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="E109" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="F109" t="n">
-        <v>36998.8612</v>
+        <v>1336.3907</v>
       </c>
       <c r="G109" t="n">
-        <v>27.56999999999998</v>
+        <v>27.56499999999998</v>
       </c>
       <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3216,7 +3545,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="C110" t="n">
         <v>27.9</v>
@@ -3225,15 +3554,18 @@
         <v>27.9</v>
       </c>
       <c r="E110" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="F110" t="n">
-        <v>5101.5588</v>
+        <v>36998.8612</v>
       </c>
       <c r="G110" t="n">
-        <v>27.57499999999999</v>
+        <v>27.56999999999998</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3242,7 +3574,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="C111" t="n">
         <v>27.9</v>
@@ -3251,15 +3583,18 @@
         <v>27.9</v>
       </c>
       <c r="E111" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="F111" t="n">
-        <v>6055.7674</v>
+        <v>5101.5588</v>
       </c>
       <c r="G111" t="n">
-        <v>27.57999999999999</v>
+        <v>27.57499999999999</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3280,12 +3615,15 @@
         <v>27.9</v>
       </c>
       <c r="F112" t="n">
-        <v>6234.0715</v>
+        <v>6055.7674</v>
       </c>
       <c r="G112" t="n">
-        <v>27.58666666666666</v>
+        <v>27.57999999999999</v>
       </c>
       <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3306,12 +3644,15 @@
         <v>27.9</v>
       </c>
       <c r="F113" t="n">
-        <v>30436.9955</v>
+        <v>6234.0715</v>
       </c>
       <c r="G113" t="n">
-        <v>27.59333333333332</v>
+        <v>27.58666666666666</v>
       </c>
       <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3320,24 +3661,27 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>27.7</v>
+        <v>27.9</v>
       </c>
       <c r="C114" t="n">
-        <v>27.7</v>
+        <v>27.9</v>
       </c>
       <c r="D114" t="n">
-        <v>27.7</v>
+        <v>27.9</v>
       </c>
       <c r="E114" t="n">
-        <v>27.7</v>
+        <v>27.9</v>
       </c>
       <c r="F114" t="n">
-        <v>36101.083</v>
+        <v>30436.9955</v>
       </c>
       <c r="G114" t="n">
-        <v>27.59666666666666</v>
+        <v>27.59333333333332</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3358,12 +3702,15 @@
         <v>27.7</v>
       </c>
       <c r="F115" t="n">
-        <v>2479.9083</v>
+        <v>36101.083</v>
       </c>
       <c r="G115" t="n">
-        <v>27.59833333333333</v>
+        <v>27.59666666666666</v>
       </c>
       <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3381,15 +3728,18 @@
         <v>27.7</v>
       </c>
       <c r="E116" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="F116" t="n">
-        <v>51011.7929</v>
+        <v>2479.9083</v>
       </c>
       <c r="G116" t="n">
-        <v>27.6</v>
+        <v>27.59833333333333</v>
       </c>
       <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3398,24 +3748,27 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="C117" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="D117" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="E117" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="F117" t="n">
-        <v>39495.8578</v>
+        <v>51011.7929</v>
       </c>
       <c r="G117" t="n">
-        <v>27.59833333333333</v>
+        <v>27.6</v>
       </c>
       <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3436,12 +3789,15 @@
         <v>27.5</v>
       </c>
       <c r="F118" t="n">
-        <v>76331.2182</v>
+        <v>39495.8578</v>
       </c>
       <c r="G118" t="n">
         <v>27.59833333333333</v>
       </c>
       <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3450,24 +3806,27 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="C119" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="D119" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="E119" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="F119" t="n">
-        <v>140.543</v>
+        <v>76331.2182</v>
       </c>
       <c r="G119" t="n">
-        <v>27.60166666666667</v>
+        <v>27.59833333333333</v>
       </c>
       <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3476,24 +3835,27 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="C120" t="n">
-        <v>27.9</v>
+        <v>27.7</v>
       </c>
       <c r="D120" t="n">
-        <v>27.9</v>
+        <v>27.7</v>
       </c>
       <c r="E120" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="F120" t="n">
-        <v>1612.7442</v>
+        <v>140.543</v>
       </c>
       <c r="G120" t="n">
-        <v>27.605</v>
+        <v>27.60166666666667</v>
       </c>
       <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3502,7 +3864,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="C121" t="n">
         <v>27.9</v>
@@ -3511,15 +3873,18 @@
         <v>27.9</v>
       </c>
       <c r="E121" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="F121" t="n">
-        <v>4366.7447</v>
+        <v>1612.7442</v>
       </c>
       <c r="G121" t="n">
-        <v>27.60833333333333</v>
+        <v>27.605</v>
       </c>
       <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3528,7 +3893,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="C122" t="n">
         <v>27.9</v>
@@ -3537,15 +3902,18 @@
         <v>27.9</v>
       </c>
       <c r="E122" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="F122" t="n">
-        <v>42397.2661</v>
+        <v>4366.7447</v>
       </c>
       <c r="G122" t="n">
-        <v>27.61</v>
+        <v>27.60833333333333</v>
       </c>
       <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3554,7 +3922,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="C123" t="n">
         <v>27.9</v>
@@ -3563,15 +3931,18 @@
         <v>27.9</v>
       </c>
       <c r="E123" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="F123" t="n">
-        <v>28500</v>
+        <v>42397.2661</v>
       </c>
       <c r="G123" t="n">
-        <v>27.61500000000001</v>
+        <v>27.61</v>
       </c>
       <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3592,12 +3963,15 @@
         <v>27.9</v>
       </c>
       <c r="F124" t="n">
-        <v>14102.4618</v>
+        <v>28500</v>
       </c>
       <c r="G124" t="n">
-        <v>27.61666666666667</v>
+        <v>27.61500000000001</v>
       </c>
       <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3606,544 +3980,27 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>28</v>
+        <v>27.9</v>
       </c>
       <c r="C125" t="n">
-        <v>28</v>
+        <v>27.9</v>
       </c>
       <c r="D125" t="n">
-        <v>28</v>
+        <v>27.9</v>
       </c>
       <c r="E125" t="n">
-        <v>28</v>
+        <v>27.9</v>
       </c>
       <c r="F125" t="n">
-        <v>2580.4892</v>
+        <v>14102.4618</v>
       </c>
       <c r="G125" t="n">
-        <v>27.62333333333334</v>
+        <v>27.61666666666667</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>28</v>
-      </c>
-      <c r="C126" t="n">
-        <v>28</v>
-      </c>
-      <c r="D126" t="n">
-        <v>28</v>
-      </c>
-      <c r="E126" t="n">
-        <v>28</v>
-      </c>
-      <c r="F126" t="n">
-        <v>68124.35709999999</v>
-      </c>
-      <c r="G126" t="n">
-        <v>27.63000000000001</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="C127" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="D127" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="E127" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="F127" t="n">
-        <v>66651.61659999999</v>
-      </c>
-      <c r="G127" t="n">
-        <v>27.63333333333334</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="C128" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="D128" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="E128" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="F128" t="n">
-        <v>300</v>
-      </c>
-      <c r="G128" t="n">
-        <v>27.64166666666668</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="C129" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="D129" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="E129" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="F129" t="n">
-        <v>19851.4201</v>
-      </c>
-      <c r="G129" t="n">
-        <v>27.64333333333335</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="C130" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="D130" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="E130" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="F130" t="n">
-        <v>7034.4752</v>
-      </c>
-      <c r="G130" t="n">
-        <v>27.65000000000001</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="C131" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="D131" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E131" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="F131" t="n">
-        <v>28201.7376</v>
-      </c>
-      <c r="G131" t="n">
-        <v>27.65500000000001</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="C132" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="D132" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E132" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="F132" t="n">
-        <v>8800</v>
-      </c>
-      <c r="G132" t="n">
-        <v>27.66000000000001</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="C133" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="D133" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="E133" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="F133" t="n">
-        <v>16512.9616</v>
-      </c>
-      <c r="G133" t="n">
-        <v>27.66666666666667</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="C134" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="D134" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E134" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="F134" t="n">
-        <v>4502.7295</v>
-      </c>
-      <c r="G134" t="n">
-        <v>27.67000000000001</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="C135" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="D135" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="E135" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="F135" t="n">
-        <v>29948.2112</v>
-      </c>
-      <c r="G135" t="n">
-        <v>27.67333333333334</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="C136" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="D136" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E136" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="F136" t="n">
-        <v>4482.7635</v>
-      </c>
-      <c r="G136" t="n">
-        <v>27.67833333333334</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="C137" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="D137" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="E137" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="F137" t="n">
-        <v>91363.0671</v>
-      </c>
-      <c r="G137" t="n">
-        <v>27.68333333333334</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="C138" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="D138" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="E138" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="F138" t="n">
-        <v>20367.5058</v>
-      </c>
-      <c r="G138" t="n">
-        <v>27.69333333333334</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="C139" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="D139" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E139" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="F139" t="n">
-        <v>259.5594</v>
-      </c>
-      <c r="G139" t="n">
-        <v>27.70000000000001</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="C140" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="D140" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E140" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="F140" t="n">
-        <v>259</v>
-      </c>
-      <c r="G140" t="n">
-        <v>27.70666666666667</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="C141" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="D141" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="E141" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="F141" t="n">
-        <v>32700</v>
-      </c>
-      <c r="G141" t="n">
-        <v>27.72000000000001</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="C142" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="D142" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E142" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="F142" t="n">
-        <v>299.25</v>
-      </c>
-      <c r="G142" t="n">
-        <v>27.72833333333335</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="C143" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="D143" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E143" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="F143" t="n">
-        <v>8300</v>
-      </c>
-      <c r="G143" t="n">
-        <v>27.73666666666668</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="C144" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="D144" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="E144" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="F144" t="n">
-        <v>25186.223</v>
-      </c>
-      <c r="G144" t="n">
-        <v>27.74666666666668</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="C145" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="D145" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E145" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="F145" t="n">
-        <v>25186.223</v>
-      </c>
-      <c r="G145" t="n">
-        <v>27.75000000000001</v>
-      </c>
-      <c r="H145" t="n">
+      <c r="I125" t="n">
         <v>0</v>
       </c>
     </row>
